--- a/Lista_opositores.xlsx
+++ b/Lista_opositores.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharm\Desktop\Formación 2023\Curso Python\CursoPython\Fase 3 - Programacion Orientada a Objetos\Tema 08 - Programacion Orientada a Objetos\Ejercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharm\Desktop\Proyecto simulador plazas oposición\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7345477B-93F9-4D47-A4F3-C5FD96EED232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFDC276-DDFA-459F-9211-B72808B8F641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39330" yWindow="5340" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+  <si>
+    <t>Plaza deseada</t>
+  </si>
+  <si>
+    <t>Plaza asignada</t>
+  </si>
   <si>
     <t>Nombre</t>
   </si>
@@ -51,10 +52,13 @@
     <t>Especialidad</t>
   </si>
   <si>
-    <t>Plaza deseada</t>
-  </si>
-  <si>
-    <t>Plaza asignada</t>
+    <t>Ciudad:</t>
+  </si>
+  <si>
+    <t>Hospital:</t>
+  </si>
+  <si>
+    <t>Especialidad:</t>
   </si>
   <si>
     <t>Sofía</t>
@@ -63,70 +67,70 @@
     <t>García</t>
   </si>
   <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Hospital universitario</t>
+  </si>
+  <si>
+    <t>Bioquímica clínica</t>
+  </si>
+  <si>
     <t>Manuel</t>
   </si>
   <si>
     <t>Sánchez</t>
   </si>
   <si>
+    <t>Murcia</t>
+  </si>
+  <si>
+    <t>Hospital universitario Virgen de la Arrisaca</t>
+  </si>
+  <si>
+    <t>Inmunología</t>
+  </si>
+  <si>
     <t>Paula</t>
   </si>
   <si>
     <t>Ortiz</t>
   </si>
   <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Salamanca</t>
+  </si>
+  <si>
     <t>Alejandro</t>
   </si>
   <si>
     <t>Navarro</t>
   </si>
   <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
     <t>Carmen</t>
   </si>
   <si>
     <t>Fernández</t>
   </si>
   <si>
+    <t>Cáceres</t>
+  </si>
+  <si>
     <t>Francisco</t>
   </si>
   <si>
     <t>Ruiz</t>
   </si>
   <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Murcia</t>
-  </si>
-  <si>
-    <t>Lugo</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Cáceres</t>
-  </si>
-  <si>
     <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Hospital universitario</t>
-  </si>
-  <si>
-    <t>Bioquímica clínica</t>
-  </si>
-  <si>
-    <t>Hospital universitario Virgen de la Arrisaca</t>
-  </si>
-  <si>
-    <t>Inmunología</t>
-  </si>
-  <si>
-    <t>Salamanca</t>
   </si>
   <si>
     <t>Pamplona</t>
@@ -189,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -212,11 +216,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -230,9 +258,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -518,15 +551,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" style="1" customWidth="1"/>
@@ -535,62 +568,63 @@
     <col min="9" max="9" width="15.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.77734375" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.88671875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="15" width="8.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>12</v>
@@ -599,24 +633,27 @@
         <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>34</v>
@@ -625,24 +662,27 @@
         <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>9</v>
@@ -651,24 +691,27 @@
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
         <v>27</v>
@@ -677,15 +720,18 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1">
         <v>25</v>
@@ -694,24 +740,27 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
         <v>16</v>
@@ -720,17 +769,20 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
